--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\121932\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\121149\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Algemenen planning" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>week 40</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">waar </t>
   </si>
   <si>
-    <t>Kiezen welk onderdeel we willen maken en uitwerken.</t>
-  </si>
-  <si>
     <t>1 t/m 3</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Idee bedenken en hoe het creëren</t>
   </si>
   <si>
-    <t>Voororiëntatie op wat we willen doen in het project.</t>
-  </si>
-  <si>
     <t>innovatieprijs</t>
   </si>
   <si>
@@ -92,6 +86,24 @@
   </si>
   <si>
     <t>Afhebben product voor innovatieprijs/markt.</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientate on relevant technologies </t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>To filter out less useful technologies</t>
+  </si>
+  <si>
+    <t>Starting</t>
+  </si>
+  <si>
+    <t>Ending research phase to further filter out technologies</t>
   </si>
 </sst>
 </file>
@@ -190,8 +202,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFBB3B3"/>
       <color rgb="FF260C0C"/>
-      <color rgb="FFFBB3B3"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFF66CC"/>
     </mruColors>
@@ -472,14 +484,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -501,7 +514,7 @@
         <v>42692</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -536,6 +549,9 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -547,9 +563,11 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -562,9 +580,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -577,9 +597,9 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -592,7 +612,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -610,8 +633,8 @@
       <c r="A15">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
-        <v>19</v>
+      <c r="G15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -692,11 +715,12 @@
         <v>8</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -751,10 +775,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -841,10 +865,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -931,10 +955,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1021,10 +1045,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1097,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1133,7 +1157,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="9"/>
@@ -1273,7 +1297,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
